--- a/Codes_Violations_5_9_2021.xlsx
+++ b/Codes_Violations_5_9_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Desktop\KC Housing Data\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8E29CF-D61F-4F76-8F82-4AF7D3BA848E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A774B-97EB-43C9-8A03-7E5B20C4F4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04C3491B-D6A5-4226-8633-8F7326828B1B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="154">
   <si>
     <t>address</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>2021-04-07T00:00:00.000</t>
+  </si>
+  <si>
+    <t>5345 Park Ave</t>
+  </si>
+  <si>
+    <t>Blue Hills</t>
+  </si>
+  <si>
+    <t>2021-04-28T00:00:00.000</t>
+  </si>
+  <si>
+    <t>DETERIORATED ROOFING MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -861,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C8399-3249-4DCB-9868-43E9D2244D87}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,16 +910,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -918,16 +930,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -938,16 +950,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -958,16 +970,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -978,16 +990,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -998,16 +1010,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1018,16 +1030,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1038,16 +1050,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1058,16 +1070,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1078,16 +1090,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1098,16 +1110,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1118,16 +1130,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1138,16 +1150,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1158,16 +1170,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1178,16 +1190,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1198,16 +1210,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1218,16 +1230,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1238,16 +1250,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1258,16 +1270,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1278,16 +1290,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1298,16 +1310,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1318,16 +1330,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1338,16 +1350,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1358,16 +1370,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1378,16 +1390,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1398,16 +1410,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1418,16 +1430,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1438,16 +1450,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1458,16 +1470,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1478,16 +1490,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1498,16 +1510,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1518,16 +1530,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1538,16 +1550,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1558,16 +1570,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1578,16 +1590,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1598,16 +1610,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1618,16 +1630,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1638,16 +1650,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1658,16 +1670,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1678,16 +1690,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1698,16 +1710,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1718,16 +1730,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1738,16 +1750,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1758,16 +1770,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1778,16 +1790,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1798,16 +1810,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1818,16 +1830,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1838,16 +1850,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1858,16 +1870,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1878,16 +1890,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1898,16 +1910,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1918,16 +1930,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -1938,16 +1950,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -1958,16 +1970,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -1978,16 +1990,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -1998,16 +2010,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -2018,16 +2030,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2038,16 +2050,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2058,16 +2070,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -2078,16 +2090,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2098,16 +2110,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -2118,16 +2130,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2138,13 +2150,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -2158,16 +2170,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2178,16 +2190,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2198,16 +2210,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2218,16 +2230,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2238,16 +2250,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2258,16 +2270,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2278,16 +2290,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -2298,16 +2310,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2318,16 +2330,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2338,16 +2350,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2358,16 +2370,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2378,16 +2390,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2398,16 +2410,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2418,13 +2430,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
         <v>48</v>
@@ -2438,13 +2450,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
         <v>48</v>
@@ -2458,16 +2470,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2478,16 +2490,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -2498,16 +2510,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -2518,16 +2530,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2538,16 +2550,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2558,16 +2570,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2578,16 +2590,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2598,16 +2610,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -2618,16 +2630,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -2638,16 +2650,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -2658,16 +2670,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -2678,16 +2690,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -2698,16 +2710,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -2718,16 +2730,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -2738,16 +2750,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -2758,16 +2770,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -2778,16 +2790,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -2798,16 +2810,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
@@ -2818,16 +2830,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -2838,16 +2850,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -2858,16 +2870,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -2878,16 +2890,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -2898,16 +2910,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -2918,16 +2930,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -2938,16 +2950,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -2958,16 +2970,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -2978,16 +2990,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -2998,16 +3010,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
@@ -3018,16 +3030,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -3038,16 +3050,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
@@ -3058,16 +3070,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -3078,16 +3090,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
@@ -3098,16 +3110,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -3118,16 +3130,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
@@ -3138,16 +3150,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
@@ -3158,16 +3170,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D115" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -3178,16 +3190,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -3198,16 +3210,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -3218,16 +3230,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -3238,16 +3250,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -3258,16 +3270,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -3278,16 +3290,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -3298,16 +3310,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
@@ -3318,16 +3330,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C123" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -3338,16 +3350,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C124" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D124" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
@@ -3358,16 +3370,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -3378,16 +3390,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
@@ -3398,16 +3410,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -3418,16 +3430,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -3438,16 +3450,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -3458,16 +3470,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -3478,16 +3490,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -3498,16 +3510,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D132" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -3518,16 +3530,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -3538,16 +3550,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -3558,16 +3570,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3578,16 +3590,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D136" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -3598,16 +3610,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -3618,16 +3630,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -3638,16 +3650,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -3658,16 +3670,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -3678,16 +3690,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -3698,16 +3710,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -3718,16 +3730,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3738,16 +3750,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D144" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -3758,16 +3770,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -3778,16 +3790,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -3798,16 +3810,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -3818,16 +3830,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -3838,16 +3850,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -3858,16 +3870,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -3878,16 +3890,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -4396,9 +4408,109 @@
         <v>144</v>
       </c>
     </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" t="s">
+        <v>91</v>
+      </c>
+      <c r="C178" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" t="s">
+        <v>152</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C179" t="s">
+        <v>112</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>150</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>112</v>
+      </c>
+      <c r="D181" t="s">
+        <v>152</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
-    <sortCondition ref="F1:F176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F181">
+    <sortCondition descending="1" ref="F1:F181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Codes_Violations_5_9_2021.xlsx
+++ b/Codes_Violations_5_9_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Desktop\KC Housing Data\Solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91860aa0312b5192/Desktop/KC Housing Data/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A774B-97EB-43C9-8A03-7E5B20C4F4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{858A774B-97EB-43C9-8A03-7E5B20C4F4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4D88CB21-443D-4AB6-A0E5-B20E11205439}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04C3491B-D6A5-4226-8633-8F7326828B1B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="212">
   <si>
     <t>address</t>
   </si>
@@ -496,13 +496,246 @@
   </si>
   <si>
     <t>DETERIORATED ROOFING MATERIAL</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Legal Description</t>
+  </si>
+  <si>
+    <t>Research Black Pty LTD
+3 Albion St
+Golden Point Victoria,  3350</t>
+  </si>
+  <si>
+    <t>3629 PARK / N 23 FT LOT 80 &amp; S11 FT LOT 81 SUNSET VIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nichols Bianca
+11812 Harrison St
+Kansas City, MO 64131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3721 BROOKLYN / LOT 21 BLK 4 FINSBURY PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	KCM Investors LLC
+4791 S Wild Rose Dr
+Tucson, AZ 85730</t>
+  </si>
+  <si>
+    <t>3731 OLIVE / S 30 FT OF N 40 FT LOT 19 BLK 2 FINSBURY PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dasgupta Anand &amp; Mathkar Shilpa
+1178 Orleans St
+Mandeville, LA 70448</t>
+  </si>
+  <si>
+    <t>2315-17 E 39TH ST / S 50 FT LOT 1 ALL LOT 2 BLK 3 GEO W WARDERS ADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cooper Alala
+4211 E 31st St
+Kansas City, MO 64128</t>
+  </si>
+  <si>
+    <t>4229 EUCLID / N 40 FT OF LOT 17 BLK 3 NIAGARA PLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Williams Ebony
+6507 Ridgeway Ave
+Kansas City, MO 64133</t>
+  </si>
+  <si>
+    <t>2700 PARK / LOT 1 RES WRIGHT PLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Goodman Floyd R
+3309 S Emery
+Independence, MO 64055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3311 WABASH / N 14.5 FT LOT 27S 30.5 FT LOT 28 WINONA</t>
+  </si>
+  <si>
+    <t>Malik Masjid Anas Bin
+PO Box 270482
+Kansas City, MO 64127-0482</t>
+  </si>
+  <si>
+    <t>2922 PARK/S 18 FT OF E 126.84 FT LOT 24 ALSO E 1/2 VAC ALLEYW OF &amp; ADJ N 20 FT OF E 126.84FT OF LOT 25 ALSO E 1/2 VAC ALLEY W OF &amp; ADJ C H PRATTS PARK AVE ADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Martin Glen A Jr
+3521 Montgall
+Kansas City, MO 64128</t>
+  </si>
+  <si>
+    <t>2703 E 35TH ST / W 16.47FT LOT4 E 19.53FT OF LOT 5 BLK 2 EMERSONS RES OF BLKS 1 &amp; 2 SHELDON PLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kitson Unus
+3833 NE 82nd St
+Kansas City, MO 64151</t>
+  </si>
+  <si>
+    <t>3805 BELLEFONTAINE / N 29.5 FTOF W 101 FT LOT 33 S 2.5 FT OF W 101 FT LOT 34 BLK 6 MARYLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lin Hang
+2919 Paseo Blvd
+Kansas City, MO 64109</t>
+  </si>
+  <si>
+    <t>3428 COLLEGE / LOT 22 BLK 14 EAST LINWOOD SUB</t>
+  </si>
+  <si>
+    <t>JSJ Holdings LLC
+PO Box 9735
+Kansas City, MO 64134</t>
+  </si>
+  <si>
+    <t>4233 BELLEFONTAINE / LOT 86 SOUTH WAUNETA PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Conde Mario A Santillan
+920 Walker Ave
+Kansas City, KS 66101</t>
+  </si>
+  <si>
+    <t>3916 S BENTON / S 22 FT LOT 41N 8 FT LOT 42 BUNGALOW HILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	PN Bellefontaine Trust
+3514 Clinton Pkwy Ste A #329
+Lawrence, KS 66047</t>
+  </si>
+  <si>
+    <t>4116 BELLEFONTAINE / LOT 59 SOUTH WAUNETA PARK</t>
+  </si>
+  <si>
+    <t>Dudley Tyres
+5213 McCoy St
+Kansas City, MO 64133</t>
+  </si>
+  <si>
+    <t>4438 AGNES/LOT 10 RES OF ROSE HEIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Sfr3 LLC
+500 Westover Dr #14104
+Sanford, NC 27330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4001 S BENTON / LOT 44 OAK PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	California Midwest Investments LLC
+PO Box 1323
+Woodbridge, CA 95258</t>
+  </si>
+  <si>
+    <t>4502 MONTGALL / LOT 33 LENOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Goodman Floyd &amp; Harves B
+8320 N Oak Tfwy # 208
+Kansas City, MO 64119</t>
+  </si>
+  <si>
+    <t>4028 S BENTON / LOT 59 OAK PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cross Vicki Ann &amp; Cross Charles J
+15872 Knurlwood St
+Romulus, MI 48174-3083</t>
+  </si>
+  <si>
+    <t>1720 E 24TH TER MOUNT EVANSTON E 1/2 LOT 13 &amp; E 40 FT LOTS 14 &amp; 15 BLK 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Gunnels John M II
+5604 E 141st Street
+Kansas City, MO 64030</t>
+  </si>
+  <si>
+    <t>2540 MICHIGAN / N 7 FT LOT 28 S 23 FT LOT 29 COWHERDS WOODLAND AVE ADD</t>
+  </si>
+  <si>
+    <t>Tiger Investments Homes LLC
+2847 S Ingram Mill Rd Ste A100
+Springfield, MO 65804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2329 BROOKLYN / N 10 FT OF E 126.3 FT LOT 9 S 20 FT OF E 126.3 FT LOT 10 BLK 4 CAPITOL HILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Petty Marion O T Jr
+3009 Benton Blvd
+Kansas City, MO 64128</t>
+  </si>
+  <si>
+    <t>5345 PARK / S 10.4 FT LOT 39 ALL LOT 40 CAPITAL VIEW</t>
+  </si>
+  <si>
+    <t>Possible Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +61-396291936</t>
+  </si>
+  <si>
+    <t>Aaron Mease                  (520) 971-5584 - Wireless
+(520) 733-6113 - Landline
+(520) 722-3670 - Landline
+(520) 722-3584 - Landline
+(520) 751-3775 - Landline</t>
+  </si>
+  <si>
+    <t>(816) 924-5600 - Wireless
+(816) 333-0710 - Landline</t>
+  </si>
+  <si>
+    <t>Shilpa                                                   (973) 991-2269 - Wireless
+(732) 634-3897 - Landline
+(732) 889-4419 - Wireless
+(908) 245-2241 - Landline
+(573) 364-8726 - Landline</t>
+  </si>
+  <si>
+    <t>https://www.truepeoplesearch.com/results?name=Ebony%20Williams&amp;citystatezip=Kansas%20City,%20MO</t>
+  </si>
+  <si>
+    <t>https://www.truepeoplesearch.com/results?name=Floyd%20R%20Goodman&amp;citystatezip=Independence,%20MO</t>
+  </si>
+  <si>
+    <t>(605) 653-1203 - Wireless
+(816) 921-5237 - Landline
+(816) 765-0753 - Landline
+(816) 965-0936 - Landline
+(816) 289-8312 - Wireless</t>
+  </si>
+  <si>
+    <t>(636) 272-3216 - Landline</t>
+  </si>
+  <si>
+    <t>https://www.truepeoplesearch.com/results?name=Charles%20J%20Cross&amp;citystatezip=Romulus,%20MI</t>
+  </si>
+  <si>
+    <t>https://www.truepeoplesearch.com/results?name=John%20M%20Gunnels&amp;citystatezip=kansas%20city</t>
+  </si>
+  <si>
+    <t>(816) 379-2525 - Wireless
+(816) 399-8116 - Wireless
+(816) 921-4227 - Landline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,16 +751,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -550,17 +803,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -873,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C8399-3249-4DCB-9868-43E9D2244D87}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,9 +1196,13 @@
     <col min="3" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="151.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +1221,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -927,8 +1250,17 @@
       <c r="F2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -947,8 +1279,14 @@
       <c r="F3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -968,7 +1306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -988,7 +1326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -1007,8 +1345,17 @@
       <c r="F6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -1028,7 +1375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1048,7 +1395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1068,7 +1415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1088,7 +1435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1108,7 +1455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1128,7 +1475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1148,7 +1495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1168,7 +1515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1187,8 +1534,17 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1287,8 +1643,17 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -1307,8 +1672,17 @@
       <c r="F21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -1327,8 +1701,17 @@
       <c r="F22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -1347,8 +1730,9 @@
       <c r="F23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1368,7 +1752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1388,7 +1772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -1408,7 +1792,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1428,7 +1812,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -1447,8 +1831,9 @@
       <c r="F28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -1468,7 +1853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1488,7 +1873,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -1508,7 +1893,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -1528,7 +1913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1547,8 +1932,9 @@
       <c r="F33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -1568,7 +1954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -1588,7 +1974,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1608,7 +1994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -1628,7 +2014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -1648,7 +2034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -1667,8 +2053,14 @@
       <c r="F39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -1687,8 +2079,9 @@
       <c r="F40" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -1707,8 +2100,9 @@
       <c r="F41" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1727,8 +2121,17 @@
       <c r="F42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +2151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1767,8 +2170,9 @@
       <c r="F44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1787,8 +2191,14 @@
       <c r="F45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1808,7 +2218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1848,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1868,7 +2278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1887,8 +2297,9 @@
       <c r="F50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1908,7 +2319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -1928,7 +2339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -1948,7 +2359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1967,8 +2378,9 @@
       <c r="F54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1988,7 +2400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2008,7 +2420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2068,7 +2480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2087,8 +2499,17 @@
       <c r="F60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +2549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -2148,7 +2569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -2167,8 +2588,14 @@
       <c r="F64" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2188,7 +2615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -2208,7 +2635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2227,8 +2654,9 @@
       <c r="F67" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2248,7 +2676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2268,7 +2696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2308,7 +2736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -2328,7 +2756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -2348,7 +2776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -2368,7 +2796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -2408,7 +2836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -2428,7 +2856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -2447,8 +2875,9 @@
       <c r="F78" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -2468,7 +2897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -2488,7 +2917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -2508,7 +2937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -2528,7 +2957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +2977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -2568,7 +2997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2588,7 +3017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -2607,8 +3036,14 @@
       <c r="F86" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>62</v>
       </c>
@@ -2628,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -2648,7 +3083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2668,7 +3103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -2688,7 +3123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -2708,7 +3143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2727,8 +3162,14 @@
       <c r="F92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>67</v>
       </c>
@@ -2748,7 +3189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -2768,7 +3209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -2788,7 +3229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -2808,7 +3249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2828,7 +3269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -2848,7 +3289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -2867,8 +3308,14 @@
       <c r="F99" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2888,7 +3335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +3355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>77</v>
       </c>
@@ -2928,7 +3375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>77</v>
       </c>
@@ -2948,7 +3395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +3415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>77</v>
       </c>
@@ -2988,7 +3435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -3008,7 +3455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
@@ -3028,7 +3475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>82</v>
       </c>
@@ -3047,8 +3494,14 @@
       <c r="F108" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H108" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>82</v>
       </c>
@@ -3068,7 +3521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>82</v>
       </c>
@@ -3088,7 +3541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3108,7 +3561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -3128,7 +3581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>82</v>
       </c>
@@ -3148,7 +3601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="F114" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -3188,7 +3647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -3208,7 +3667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -3228,7 +3687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -3248,7 +3707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>86</v>
       </c>
@@ -3268,7 +3727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>86</v>
       </c>
@@ -3288,7 +3747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>86</v>
       </c>
@@ -3308,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>86</v>
       </c>
@@ -3328,7 +3787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>86</v>
       </c>
@@ -3348,7 +3807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>86</v>
       </c>
@@ -3368,7 +3827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>86</v>
       </c>
@@ -3388,7 +3847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -3408,7 +3867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -3428,7 +3887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -3448,7 +3907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -3467,8 +3926,14 @@
       <c r="F129" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>94</v>
       </c>
@@ -3488,7 +3953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -3508,7 +3973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -3528,7 +3993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>94</v>
       </c>
@@ -3548,7 +4013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>94</v>
       </c>
@@ -3568,7 +4033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>94</v>
       </c>
@@ -3588,7 +4053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -3608,7 +4073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>94</v>
       </c>
@@ -3628,7 +4093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>94</v>
       </c>
@@ -3648,7 +4113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>94</v>
       </c>
@@ -3668,7 +4133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>94</v>
       </c>
@@ -3688,7 +4153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -3708,7 +4173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -3728,7 +4193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -3748,7 +4213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>94</v>
       </c>
@@ -3768,7 +4233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>94</v>
       </c>
@@ -3788,7 +4253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>94</v>
       </c>
@@ -3808,7 +4273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -3828,7 +4293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +4313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>94</v>
       </c>
@@ -3868,7 +4333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -3888,7 +4353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>94</v>
       </c>
@@ -3908,7 +4373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3927,8 +4392,17 @@
       <c r="F152" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H152" t="s">
+        <v>193</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>141</v>
       </c>
@@ -3948,7 +4422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -3968,7 +4442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>141</v>
       </c>
@@ -3988,7 +4462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>141</v>
       </c>
@@ -4008,7 +4482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -4028,7 +4502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>141</v>
       </c>
@@ -4048,7 +4522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>141</v>
       </c>
@@ -4068,7 +4542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -4087,8 +4561,17 @@
       <c r="F160" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H160" t="s">
+        <v>195</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -4108,7 +4591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -4148,7 +4631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -4168,7 +4651,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>145</v>
       </c>
@@ -4188,7 +4671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>145</v>
       </c>
@@ -4208,7 +4691,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -4228,7 +4711,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -4247,8 +4730,14 @@
       <c r="F168" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>147</v>
       </c>
@@ -4268,7 +4757,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>147</v>
       </c>
@@ -4288,7 +4777,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>147</v>
       </c>
@@ -4308,7 +4797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>147</v>
       </c>
@@ -4328,7 +4817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>147</v>
       </c>
@@ -4348,7 +4837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>147</v>
       </c>
@@ -4368,7 +4857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
@@ -4388,7 +4877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>147</v>
       </c>
@@ -4408,7 +4897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>150</v>
       </c>
@@ -4427,8 +4916,17 @@
       <c r="F177" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H177" t="s">
+        <v>199</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
@@ -4448,7 +4946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>150</v>
       </c>
@@ -4468,7 +4966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>150</v>
       </c>
@@ -4488,7 +4986,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>150</v>
       </c>
@@ -4512,7 +5010,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F181">
     <sortCondition descending="1" ref="F1:F181"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I21" r:id="rId1" xr:uid="{0CFC3DAC-088D-4DFA-8B77-4E917722789E}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{D2C6B4DB-3024-4649-8684-4CFABF728EE4}"/>
+    <hyperlink ref="I152" r:id="rId3" xr:uid="{3509E0E2-C9E7-49AA-953F-723D18C0F4D5}"/>
+    <hyperlink ref="I160" r:id="rId4" xr:uid="{B0E38BE7-6F68-44C5-A682-B1CE8B893BFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>